--- a/tine20/Addressbook/Export/templates/addressbook_contact_export.xlsx
+++ b/tine20/Addressbook/Export/templates/addressbook_contact_export.xlsx
@@ -15,31 +15,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>${twig:branding.title}</t>
   </si>
   <si>
     <t>${twig:translate('account')} ${twig:export.account.displayName} // ${twig:translate('time')} ${twig:export.timestamp.format('Y-m-d H:i:s')}</t>
   </si>
-  <si>
-    <t>${twig:translate('name')}</t>
-  </si>
-  <si>
-    <t>${twig:translate('description')}</t>
-  </si>
-  <si>
-    <t>${twig:translate('members')}</t>
-  </si>
-  <si>
-    <t>${ROW}${twig:record.name}</t>
-  </si>
-  <si>
-    <t>${twig;record.description}</t>
-  </si>
-  <si>
-    <t>${twig:record.members}${/ROW}</t>
-  </si>
 </sst>
 </file>
 
@@ -48,7 +30,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -79,36 +61,16 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF4472C4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE7E6E6"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -116,27 +78,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -163,7 +104,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -178,22 +119,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -205,66 +130,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFE7E6E6"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF4472C4"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -273,19 +138,19 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1665360</xdr:colOff>
+      <xdr:colOff>1692360</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>26640</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:colOff>53280</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>184680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Bild 1" descr=""/>
+        <xdr:cNvPr id="0" name="Bild 1" descr="${twig:branding.logo}"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -294,8 +159,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8356320" y="16560"/>
-          <a:ext cx="2637720" cy="482040"/>
+          <a:off x="8383320" y="7560"/>
+          <a:ext cx="2637360" cy="481680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -315,13 +180,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5037037037037"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="53.3333333333333"/>
@@ -347,28 +212,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>

--- a/tine20/Addressbook/Export/templates/addressbook_contact_export.xlsx
+++ b/tine20/Addressbook/Export/templates/addressbook_contact_export.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pzornsch/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nelius/src/tine20.git/tine20/Addressbook/Export/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCCFACD-C900-6047-ACEF-DED76E844B03}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="2780" windowWidth="20620" windowHeight="13220" tabRatio="500"/>
+    <workbookView xWindow="4400" yWindow="2780" windowWidth="24400" windowHeight="13220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -38,14 +39,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -138,7 +138,7 @@
   <cellStyles count="3">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -214,6 +214,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -228,14 +231,20 @@
       <xdr:rowOff>35491</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>554683</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>241802</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>517075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Bild 2" descr="${twig:branding.logo}"/>
+        <xdr:cNvPr id="3" name="Bild 2" descr="${twig:branding.logo}">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -529,17 +538,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="7" width="8.83203125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="7" width="9" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.15">
